--- a/data/trans_camb/POLIPATOLOGIA_5-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/POLIPATOLOGIA_5-Habitat-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>1.743109643965417</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7.545473853288777</v>
+        <v>7.54547385328878</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>5.823242591606674</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.4575542197132278</v>
+        <v>-0.525989982395502</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.1203555445395234</v>
+        <v>-0.1330640046480593</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5.16786796068771</v>
+        <v>5.378940314234173</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.192585405155707</v>
+        <v>2.911326474378477</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>4.425775760173195</v>
+        <v>4.450995867307332</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>11.36135447814037</v>
+        <v>11.29212219366313</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.994390382265918</v>
+        <v>2.031503743487828</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>2.905762289662388</v>
+        <v>2.817566084442635</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>8.977922961691952</v>
+        <v>9.277954549038409</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.277111921363853</v>
+        <v>3.157624538290869</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.709050092300006</v>
+        <v>3.623474132755506</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.98275752417023</v>
+        <v>10.09404635510372</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.825545578764698</v>
+        <v>8.31029999338587</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>10.21176292719966</v>
+        <v>10.18108172804466</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>16.26831243752815</v>
+        <v>16.22143143413375</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>5.424317167900936</v>
+        <v>5.273854736046882</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>6.215611709380966</v>
+        <v>6.166194028839782</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>12.49740067842942</v>
+        <v>12.82408087567247</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.6969874069907541</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>3.017079432568739</v>
+        <v>3.01707943256874</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>1.544665733199635</v>
@@ -760,7 +760,7 @@
         <v>1.927770007228685</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>3.696110162148869</v>
+        <v>3.696110162148868</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>1.143560699466607</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1733909686660653</v>
+        <v>-0.1711599360948167</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.06446447790589876</v>
+        <v>-0.0496250355188906</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>1.365302641636253</v>
+        <v>1.456927694983004</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.6372312494827741</v>
+        <v>0.5634051040057224</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9464962675744564</v>
+        <v>0.8537673318228268</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>2.146120625841999</v>
+        <v>2.135766245252828</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.495426018917478</v>
+        <v>0.5606451240494329</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.7620753641763462</v>
+        <v>0.7556179769473045</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>2.369637047684587</v>
+        <v>2.370730319874802</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.838187875351911</v>
+        <v>1.737634310495803</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>2.136664161850906</v>
+        <v>2.014567193884283</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>5.769212329104184</v>
+        <v>5.978512238673821</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>3.190150936896311</v>
+        <v>2.938909351833489</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>3.945200546960693</v>
+        <v>3.628070789630993</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>6.329122569734479</v>
+        <v>6.09262246586049</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.070504872414764</v>
+        <v>2.094027294369242</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.38786963768547</v>
+        <v>2.426376000422367</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>5.162626599729976</v>
+        <v>5.220830899739573</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.844892469110234</v>
+        <v>-1.903364548946911</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.199801484064633</v>
+        <v>-2.187175273806887</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.547794964079377</v>
+        <v>2.482879167178872</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.895336907996939</v>
+        <v>0.961262007914266</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.7596181450231754</v>
+        <v>0.483281141246464</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>7.122154874502254</v>
+        <v>7.176989456663177</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1869249984050124</v>
+        <v>0.09691492824714233</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.222218737213608</v>
+        <v>-0.2054168884959353</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>5.445216184092173</v>
+        <v>5.414623992269313</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.553977423145908</v>
+        <v>1.611647769363985</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8634441120460838</v>
+        <v>0.9500190794327434</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.482795747676802</v>
+        <v>6.333181563883122</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.611864203925554</v>
+        <v>5.723218209467373</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>5.837068951908654</v>
+        <v>5.483353134100099</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>11.9649659673285</v>
+        <v>11.68217729181636</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.229100424727053</v>
+        <v>3.126808187799001</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.662086789360055</v>
+        <v>2.756568667567229</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>8.490992288777946</v>
+        <v>8.600127153031286</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4172027632418012</v>
+        <v>-0.3988161937647566</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4889743005521566</v>
+        <v>-0.4830195904493713</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.5368328132503289</v>
+        <v>0.5144283937765731</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.1170667169062131</v>
+        <v>0.1413688413570316</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1057894694608416</v>
+        <v>0.06277437937835498</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9708191870624282</v>
+        <v>0.9726117402850818</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0385486037857397</v>
+        <v>0.02376253962803304</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.04317235693608419</v>
+        <v>-0.04114666920576566</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.9622235331675578</v>
+        <v>0.9467187937515144</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.5283740645780427</v>
+        <v>0.5670949463082697</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.2947980319706409</v>
+        <v>0.3525661909034863</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.259851392730875</v>
+        <v>2.264655039280819</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.186637495378607</v>
+        <v>1.234336368078834</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.204463599260146</v>
+        <v>1.170088887860706</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.589610712208887</v>
+        <v>2.581731226575991</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7914257043048122</v>
+        <v>0.7654610519359524</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.6501324588835405</v>
+        <v>0.647946157485913</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>2.117118069400919</v>
+        <v>2.160906373938244</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-1.7730589518111</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>4.465883397786029</v>
+        <v>4.465883397786026</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-0.2599077948391676</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.642774929718331</v>
+        <v>-1.605988576993644</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.312692236173717</v>
+        <v>-2.247189657321668</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.509736355164176</v>
+        <v>1.788736822008856</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.828282140757547</v>
+        <v>-3.687395981992483</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-4.799033220523903</v>
+        <v>-4.771995107115775</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.396154140908592</v>
+        <v>1.415385972237489</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.186106819774349</v>
+        <v>-2.229037599399936</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.800393260266592</v>
+        <v>-2.691462272444105</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>2.163509425982322</v>
+        <v>2.111776367414419</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.522633629122372</v>
+        <v>2.438216801754467</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.607115768828708</v>
+        <v>1.623206019169518</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.014388062650175</v>
+        <v>6.431821996642388</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.183604894455426</v>
+        <v>2.747235688675317</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.084796446720375</v>
+        <v>1.33811142170502</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>7.703850394781189</v>
+        <v>7.363034092037915</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.615930971243101</v>
+        <v>1.574212510990605</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.9302755697965421</v>
+        <v>1.012326656125156</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>6.083699343828322</v>
+        <v>5.973671619226851</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.1736445777170801</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.437366414664419</v>
+        <v>0.4373664146644187</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.03787138306229514</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.3813223123013992</v>
+        <v>-0.3542625175278274</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.4871055306550343</v>
+        <v>-0.4965098406022264</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.3151323638290602</v>
+        <v>0.3570124785870314</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.3256281609877532</v>
+        <v>-0.3161342571662184</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4095343738146012</v>
+        <v>-0.408061690055228</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1030447169982588</v>
+        <v>0.09840375675662816</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2807934416271076</v>
+        <v>-0.2811441765242377</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3614717075268011</v>
+        <v>-0.3402057670331642</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.2592613865257968</v>
+        <v>0.2613706880907145</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.011981560098834</v>
+        <v>1.018685028693116</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.6285623842031767</v>
+        <v>0.6798435053203076</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.396640240580471</v>
+        <v>2.569633997805193</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.2618470736045072</v>
+        <v>0.3088313696558041</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1359402674188483</v>
+        <v>0.1437578954418553</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.8839457346538327</v>
+        <v>0.8412770043918683</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2812524621923659</v>
+        <v>0.2680368443791843</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1491945160603505</v>
+        <v>0.1749740040206031</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.050628777142245</v>
+        <v>1.043803330602431</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>1.939764110180626</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>7.784200079209409</v>
+        <v>7.784200079209406</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.611710432263948</v>
+        <v>-1.626738766878278</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.796325412552101</v>
+        <v>-1.972673896298075</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.627120654432633</v>
+        <v>2.668410882679437</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.292501522728856</v>
+        <v>1.58057068274244</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>1.002912124679675</v>
+        <v>1.206108552002591</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>7.996425894663838</v>
+        <v>8.342972716918622</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.6627090215909065</v>
+        <v>0.5006728769647163</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.4058866096882287</v>
+        <v>0.2403874409400946</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>6.158682475667866</v>
+        <v>6.149858105118665</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.666360835264289</v>
+        <v>1.83586697817045</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.501303764064602</v>
+        <v>1.492179339051138</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6.54656212498926</v>
+        <v>6.577208713599718</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.970587407760545</v>
+        <v>6.915265086227798</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>6.325484899739354</v>
+        <v>6.314083706145489</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>13.11972031214934</v>
+        <v>13.16205902339181</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.666716884504505</v>
+        <v>3.913679344598472</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.618277097667676</v>
+        <v>3.474545484623619</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>9.394223317894417</v>
+        <v>9.375002495510339</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.5333292453144113</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>1.48338369090634</v>
+        <v>1.483383690906339</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.4002581045600997</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.3717676517093876</v>
+        <v>-0.3841262523726224</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.4060474185814487</v>
+        <v>-0.4348408354187946</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.5720180382883584</v>
+        <v>0.5242218297866904</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.1458806943167072</v>
+        <v>0.177829910694841</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1282906460567539</v>
+        <v>0.1192666118430193</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9053894631748218</v>
+        <v>0.9682343983290128</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1128457602163951</v>
+        <v>0.08408513132131988</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.05995178042834561</v>
+        <v>0.04230269229882428</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.9423261678626266</v>
+        <v>0.9523898023684417</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.5462083063967565</v>
+        <v>0.6317415162626656</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.5010982921359283</v>
+        <v>0.5252789131487595</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.211169167340767</v>
+        <v>2.184958110865276</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.121456271879248</v>
+        <v>1.165631256115382</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.084573105042247</v>
+        <v>1.078373159095452</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>2.20625131462692</v>
+        <v>2.240658077338982</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7658414638143543</v>
+        <v>0.8264203496463342</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.7380350440378327</v>
+        <v>0.7331881524053729</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.943075893390226</v>
+        <v>1.965568155665511</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>0.1068083411705396</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>4.982720053527584</v>
+        <v>4.982720053527583</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>3.160194112422454</v>
@@ -1511,7 +1511,7 @@
         <v>3.09086956325979</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>9.683625302167117</v>
+        <v>9.683625302167115</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>1.799935999496088</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.5806759370273757</v>
+        <v>-0.4831400478054188</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.7490418011058427</v>
+        <v>-0.7398954957958445</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3.936366292350775</v>
+        <v>3.883040114250232</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1.868788126801127</v>
+        <v>1.728789313328089</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>1.570408155568383</v>
+        <v>1.67067516708186</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>8.340636479774133</v>
+        <v>8.340100800924695</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.9332524757349596</v>
+        <v>0.9634820772659748</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.8380621221777098</v>
+        <v>0.7995521752478545</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>6.570442530842964</v>
+        <v>6.553138241331233</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.258363690059552</v>
+        <v>1.296859731740173</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.021305370598101</v>
+        <v>0.9645541933863581</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>6.078835661249318</v>
+        <v>6.0152181197178</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.551809456045055</v>
+        <v>4.496307818678113</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>4.473409049486089</v>
+        <v>4.568300581077354</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>10.98413005646824</v>
+        <v>10.92312602141718</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.572859030424866</v>
+        <v>2.63147316213156</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>2.508342790163127</v>
+        <v>2.430272189610895</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>8.292133118141463</v>
+        <v>8.28362889224841</v>
       </c>
     </row>
     <row r="31">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1476712575512753</v>
+        <v>-0.1283959828792567</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1935464164235813</v>
+        <v>-0.1988972623649715</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>1.018220373244018</v>
+        <v>0.9934198095563863</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.2539142533322335</v>
+        <v>0.2465089072211967</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.2083543764238682</v>
+        <v>0.218244069393203</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>1.117840450760049</v>
+        <v>1.115792657617241</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1698163536070771</v>
+        <v>0.1777953167939458</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.1577337262249947</v>
+        <v>0.1448311621330715</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>1.169908457910118</v>
+        <v>1.185923558454982</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.4137811754594837</v>
+        <v>0.4350208538519528</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.3363937464645098</v>
+        <v>0.3183343483617171</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>2.068544744433684</v>
+        <v>1.989732667769005</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.752102190004718</v>
+        <v>0.7526565520881207</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.7326580554290186</v>
+        <v>0.743202652455542</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.839062730097304</v>
+        <v>1.80077571072467</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.5410628658894309</v>
+        <v>0.5656568071656644</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.5383166861210942</v>
+        <v>0.5155171660450194</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.782883803365356</v>
+        <v>1.778122401882751</v>
       </c>
     </row>
     <row r="34">
